--- a/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/naver_datalab/tj/좋은날_IU.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/naver_datalab/tj/좋은날_IU.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_6d59870d9b7c7530e4a7faaf1a1c5053</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_baf7d1b3c6712a1ba7b3afb311c762c7</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>주간 : 2022-02 ~ 2022-05</t>
+    <t>주간 : 2022-04 ~ 2022-05</t>
   </si>
   <si>
     <t>성별</t>
@@ -54,54 +54,6 @@
   </si>
   <si>
     <t>좋은날</t>
-  </si>
-  <si>
-    <t>2022-02-07</t>
-  </si>
-  <si>
-    <t>79.56295</t>
-  </si>
-  <si>
-    <t>2022-02-14</t>
-  </si>
-  <si>
-    <t>77.68224</t>
-  </si>
-  <si>
-    <t>2022-02-21</t>
-  </si>
-  <si>
-    <t>85.68869</t>
-  </si>
-  <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>74.49399</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
-    <t>79.22264</t>
-  </si>
-  <si>
-    <t>2022-03-14</t>
-  </si>
-  <si>
-    <t>82.03474</t>
-  </si>
-  <si>
-    <t>2022-03-21</t>
-  </si>
-  <si>
-    <t>83.0557</t>
-  </si>
-  <si>
-    <t>2022-03-28</t>
-  </si>
-  <si>
-    <t>81.81981</t>
   </si>
   <si>
     <t>2022-04-04</t>
@@ -306,70 +258,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/naver_datalab/tj/좋은날_IU.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/naver_datalab/tj/좋은날_IU.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_baf7d1b3c6712a1ba7b3afb311c762c7</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_6d59870d9b7c7530e4a7faaf1a1c5053</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>주간 : 2022-04 ~ 2022-05</t>
+    <t>주간 : 2022-02 ~ 2022-05</t>
   </si>
   <si>
     <t>성별</t>
@@ -54,6 +54,54 @@
   </si>
   <si>
     <t>좋은날</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>79.56295</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>77.68224</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>85.68869</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>74.49399</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>79.22264</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>82.03474</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>83.0557</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>81.81981</t>
   </si>
   <si>
     <t>2022-04-04</t>
@@ -258,6 +306,70 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
